--- a/Excel专题考核数据.xlsx
+++ b/Excel专题考核数据.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb.gengmy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjl\Github\NeteaseDAcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF18363-2FFF-463C-970C-B9D428A689AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7138A-0C3E-4CD4-A38A-AD4983DF96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="数据源" sheetId="1" r:id="rId1"/>
-    <sheet name="专题考核" sheetId="2" r:id="rId2"/>
+    <sheet name="透视表" sheetId="4" r:id="rId1"/>
+    <sheet name="数据源" sheetId="1" r:id="rId2"/>
+    <sheet name="专题考核" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="110">
   <si>
     <t>工号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -362,6 +368,94 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和项:计数</t>
+  </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>大专</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>中专</t>
+  </si>
+  <si>
+    <t>第一题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级工程师</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>技术员</t>
+  </si>
+  <si>
+    <t>经济师</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>政工师</t>
+  </si>
+  <si>
+    <t>助理工程师</t>
+  </si>
+  <si>
+    <t>助理会计师</t>
+  </si>
+  <si>
+    <t>助理经济师</t>
+  </si>
+  <si>
+    <t>助理政工师</t>
   </si>
 </sst>
 </file>
@@ -371,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +493,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +546,39 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,7 +598,1400 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:pivotSource>
+    <c:name>[Excel专题考核数据.xlsx]透视表!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="003873"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="003873"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="003873"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="003873"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E71F26"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E71F26"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E71F26"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="E71F26"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17264205498902802"/>
+          <c:y val="4.2348411934552452E-2"/>
+          <c:w val="0.78155957144701182"/>
+          <c:h val="0.81554334675419982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>透视表!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>男</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="003873"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:ptCount val="0"/>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:ptCount val="0"/>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd w="lg" len="lg"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>透视表!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>财务</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>销售</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>行政</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>透视表!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E07-4C60-A421-9B9B21209710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>透视表!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>女</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E71F26"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:ptCount val="0"/>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:ptCount val="0"/>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>透视表!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>财务</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>销售</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>行政</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>透视表!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5E07-4C60-A421-9B9B21209710}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="110"/>
+        <c:axId val="911562096"/>
+        <c:axId val="911571664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="911562096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="3175" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+                <a:round/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911571664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="911571664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911562096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="E5E5E5"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="3175">
+              <a:solidFill>
+                <a:srgbClr val="7F7F7F"/>
+              </a:solidFill>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81676602472883664"/>
+          <c:y val="5.3930733370494865E-2"/>
+          <c:w val="0.11555816968662048"/>
+          <c:h val="0.10669848960374848"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:extLst>
+      <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+        <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:round/>
+        </a14:hiddenLine>
+      </a:ext>
+    </a:extLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357716</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DDB12A-A3F9-0D7D-070D-D8237F7DDD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -550,14 +2079,122 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>第一题、请在本工作表中用数据透视图统计出数据源工作表中各部门的男女员工人数，注意给其添加数据标签，并且给其应用一种你喜欢的图表样式。</a:t>
+            <a:t>第一题、请在本工作表中用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据透视图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>统计出数据源工作表中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各部门</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>男女员工人数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，注意给其添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据标签</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，并且给其应用一种你喜欢的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>图表样式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:br>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>第二题、数据源不变，用数据透视表统计出各部门员工的学历状况，并使用自定义排序的方法给学历从低到高进行排序</a:t>
+            <a:t>第二题、数据源不变，用数据透视表统计出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各部门员工</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>学历状况</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，并使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自定义排序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的方法给学历从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>低到高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进行排序</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -611,45 +2248,1351 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="mjl" refreshedDate="44719.9842244213" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{4495B0B0-33CB-4A95-8644-172E5834A347}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K51" sheet="数据源"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="工号" numFmtId="49">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
+    </cacheField>
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems count="50">
+        <s v="黄建强"/>
+        <s v="司马项"/>
+        <s v="黄平"/>
+        <s v="贾申平"/>
+        <s v="司马娟"/>
+        <s v="涂泳虞"/>
+        <s v="俞志强"/>
+        <s v="殷豫群"/>
+        <s v="肖琪"/>
+        <s v="苏武"/>
+        <s v="张悦群"/>
+        <s v="李巧"/>
+        <s v="鲁帆"/>
+        <s v="章式"/>
+        <s v="王晓"/>
+        <s v="王海强"/>
+        <s v="刘刚"/>
+        <s v="张严"/>
+        <s v="魏寒"/>
+        <s v="吴妍"/>
+        <s v="刘思云"/>
+        <s v="周韵"/>
+        <s v="薛利恒"/>
+        <s v="杜晋"/>
+        <s v="张倩"/>
+        <s v="萧山"/>
+        <s v="詹仕通"/>
+        <s v="刘汉安"/>
+        <s v="刘会民"/>
+        <s v="伊然"/>
+        <s v="司徒春"/>
+        <s v="黎辉"/>
+        <s v="李爱晶"/>
+        <s v="肖童童"/>
+        <s v="钟幻"/>
+        <s v="戴威"/>
+        <s v="刘惠"/>
+        <s v="魏珍"/>
+        <s v="黄丝"/>
+        <s v="尹清"/>
+        <s v="沈群文"/>
+        <s v="高伊"/>
+        <s v="潘跃巧"/>
+        <s v="叶惠"/>
+        <s v="张月刚"/>
+        <s v="章中承"/>
+        <s v="魏晓"/>
+        <s v="张了了"/>
+        <s v="候跃飞"/>
+        <s v="章均"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="性别" numFmtId="0">
+      <sharedItems count="2">
+        <s v="男"/>
+        <s v="女"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="民族" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="部门" numFmtId="0">
+      <sharedItems count="3">
+        <s v="财务"/>
+        <s v="销售"/>
+        <s v="行政"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="学历" numFmtId="0">
+      <sharedItems count="5">
+        <s v="大学"/>
+        <s v="大专"/>
+        <s v="初中"/>
+        <s v="中专"/>
+        <s v="高中"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="出生日期" numFmtId="14">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="1958-08-10T00:00:00" maxDate="1996-04-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="职称" numFmtId="0">
+      <sharedItems count="10">
+        <s v="高级工程师"/>
+        <s v="工程师"/>
+        <s v="经济师"/>
+        <s v="助理工程师"/>
+        <s v="政工师"/>
+        <s v="其他"/>
+        <s v="技术员"/>
+        <s v="助理会计师"/>
+        <s v="助理经济师"/>
+        <s v="助理政工师"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="工资" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="6520"/>
+    </cacheField>
+    <cacheField name="年龄" numFmtId="176">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="26" maxValue="64"/>
+    </cacheField>
+    <cacheField name="计数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1968-12-10T00:00:00"/>
+    <x v="0"/>
+    <n v="3100"/>
+    <n v="54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="1970-10-10T00:00:00"/>
+    <x v="0"/>
+    <n v="4200"/>
+    <n v="52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1978-03-10T00:00:00"/>
+    <x v="1"/>
+    <n v="4000"/>
+    <n v="44"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1986-06-10T00:00:00"/>
+    <x v="1"/>
+    <n v="3800"/>
+    <n v="36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1958-08-10T00:00:00"/>
+    <x v="2"/>
+    <n v="1800"/>
+    <n v="64"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1974-12-10T00:00:00"/>
+    <x v="3"/>
+    <n v="4100"/>
+    <n v="48"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1978-03-10T00:00:00"/>
+    <x v="4"/>
+    <n v="4600"/>
+    <n v="44"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1970-12-10T00:00:00"/>
+    <x v="5"/>
+    <n v="4600"/>
+    <n v="52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="1"/>
+    <n v="3800"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="3"/>
+    <n v="1000"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1974-03-10T00:00:00"/>
+    <x v="5"/>
+    <n v="1300"/>
+    <n v="48"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1996-04-10T00:00:00"/>
+    <x v="6"/>
+    <n v="4500"/>
+    <n v="26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="12"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1970-08-10T00:00:00"/>
+    <x v="5"/>
+    <n v="4300"/>
+    <n v="52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="13"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="3"/>
+    <n v="3800"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="14"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="1970-12-10T00:00:00"/>
+    <x v="5"/>
+    <n v="4600"/>
+    <n v="52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="15"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1978-12-10T00:00:00"/>
+    <x v="3"/>
+    <n v="4600"/>
+    <n v="44"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="16"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1988-08-10T00:00:00"/>
+    <x v="7"/>
+    <n v="2500"/>
+    <n v="34"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1965-10-12T00:00:00"/>
+    <x v="8"/>
+    <n v="4300"/>
+    <n v="57"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="18"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="2"/>
+    <d v="1968-11-10T00:00:00"/>
+    <x v="7"/>
+    <n v="3800"/>
+    <n v="54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="19"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="3"/>
+    <n v="4500"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="20"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1987-10-10T00:00:00"/>
+    <x v="1"/>
+    <n v="4700"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="21"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1981-10-10T00:00:00"/>
+    <x v="6"/>
+    <n v="6500"/>
+    <n v="41"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="22"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1983-08-10T00:00:00"/>
+    <x v="9"/>
+    <n v="3210"/>
+    <n v="39"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="23"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="0"/>
+    <d v="1983-07-10T00:00:00"/>
+    <x v="0"/>
+    <n v="3680"/>
+    <n v="39"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="24"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="1974-01-10T00:00:00"/>
+    <x v="1"/>
+    <n v="2568"/>
+    <n v="48"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="25"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="1965-12-10T00:00:00"/>
+    <x v="1"/>
+    <n v="4560"/>
+    <n v="57"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="26"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1980-11-10T00:00:00"/>
+    <x v="2"/>
+    <n v="1230"/>
+    <n v="42"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="27"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="4"/>
+    <d v="1978-02-10T00:00:00"/>
+    <x v="4"/>
+    <n v="2130"/>
+    <n v="44"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="28"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="1970-10-10T00:00:00"/>
+    <x v="4"/>
+    <n v="4560"/>
+    <n v="52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="29"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1969-01-10T00:00:00"/>
+    <x v="1"/>
+    <n v="3789"/>
+    <n v="53"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="30"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="8"/>
+    <n v="5789"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="31"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="4"/>
+    <d v="1977-12-10T00:00:00"/>
+    <x v="8"/>
+    <n v="1587"/>
+    <n v="45"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="32"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1981-09-10T00:00:00"/>
+    <x v="8"/>
+    <n v="5830"/>
+    <n v="41"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="33"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1971-01-10T00:00:00"/>
+    <x v="4"/>
+    <n v="5468"/>
+    <n v="51"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="4"/>
+    <d v="1973-03-10T00:00:00"/>
+    <x v="1"/>
+    <n v="4780"/>
+    <n v="49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="35"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1978-10-10T00:00:00"/>
+    <x v="2"/>
+    <n v="2050"/>
+    <n v="44"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="3"/>
+    <d v="1974-03-10T00:00:00"/>
+    <x v="8"/>
+    <n v="3560"/>
+    <n v="48"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="1"/>
+    <d v="1982-07-10T00:00:00"/>
+    <x v="7"/>
+    <n v="3450"/>
+    <n v="40"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="38"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="1"/>
+    <x v="4"/>
+    <d v="1973-03-10T00:00:00"/>
+    <x v="8"/>
+    <n v="3120"/>
+    <n v="49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="39"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="1973-03-10T00:00:00"/>
+    <x v="8"/>
+    <n v="4521"/>
+    <n v="49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="40"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1987-07-10T00:00:00"/>
+    <x v="1"/>
+    <n v="2450"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="41"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1968-03-10T00:00:00"/>
+    <x v="1"/>
+    <n v="1350"/>
+    <n v="54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="42"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1989-08-10T00:00:00"/>
+    <x v="1"/>
+    <n v="6408"/>
+    <n v="33"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="43"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1987-05-10T00:00:00"/>
+    <x v="1"/>
+    <n v="2015"/>
+    <n v="35"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="44"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v=" "/>
+    <x v="1"/>
+    <n v="2019"/>
+    <e v="#VALUE!"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="45"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1986-07-10T00:00:00"/>
+    <x v="3"/>
+    <n v="2508"/>
+    <n v="36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="46"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="0"/>
+    <d v="1985-12-10T00:00:00"/>
+    <x v="3"/>
+    <n v="3250"/>
+    <n v="37"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="47"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="3"/>
+    <d v="1973-03-10T00:00:00"/>
+    <x v="1"/>
+    <n v="1559"/>
+    <n v="49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="48"/>
+    <x v="0"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1968-10-15T00:00:00"/>
+    <x v="1"/>
+    <n v="4520"/>
+    <n v="54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="49"/>
+    <x v="1"/>
+    <s v="汉"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="1975-08-10T00:00:00"/>
+    <x v="1"/>
+    <n v="6520"/>
+    <n v="47"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EE86CC8-FA24-4776-9E1E-4EB2FE7134B2}" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A46:L51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="35"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="48"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="46"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="22"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="6"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="44"/>
+        <item x="10"/>
+        <item x="49"/>
+        <item x="13"/>
+        <item x="45"/>
+        <item x="34"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="6">
+        <item sd="0" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:计数" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EAC35F-9FBC-4EF9-805A-CB689AAF33A6}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A26:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="35"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="48"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="46"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="22"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="6"/>
+        <item x="26"/>
+        <item x="47"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="44"/>
+        <item x="10"/>
+        <item x="49"/>
+        <item x="13"/>
+        <item x="45"/>
+        <item x="34"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="6">
+        <item sd="0" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:计数" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAD50C70-F516-49D6-B01B-9893FFDBDBD5}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:计数" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="D3.js">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="D3.js">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="C8D7DB"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E0EAED"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="003873"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="F70000"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="2CA02C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="E71F26"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4EB848"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FAE615"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="A65628"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="F781BF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -872,25 +3815,745 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="R ggplot2 Set3">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="4E8DB9"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E5E5E5"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="FF6C91"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="BC9D00"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="00BB57"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="00B8E5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="CD79FF"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F8766D"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="00BFC4"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="B3B3B3"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87B6B41-BA14-49CD-A5C9-5C2920EC34F4}">
+  <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.05859375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.05859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="11">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="11">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="11">
+        <v>40</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11">
+        <v>2</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11">
+        <v>3</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2</v>
+      </c>
+      <c r="I49" s="11">
+        <v>3</v>
+      </c>
+      <c r="J49" s="11">
+        <v>6</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11">
+        <v>4</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
+        <v>3</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11">
+        <v>16</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2</v>
+      </c>
+      <c r="E51" s="11">
+        <v>3</v>
+      </c>
+      <c r="F51" s="11">
+        <v>4</v>
+      </c>
+      <c r="G51" s="11">
+        <v>4</v>
+      </c>
+      <c r="H51" s="11">
+        <v>7</v>
+      </c>
+      <c r="I51" s="11">
+        <v>3</v>
+      </c>
+      <c r="J51" s="11">
+        <v>7</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.05859375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="12.87890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.52734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,20 +4572,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -947,15 +4613,19 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>3100</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">YEAR(TODAY())-YEAR(G2)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K2" s="2">
+        <f>COUNTA(C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -980,15 +4650,19 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>4200</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J51" ca="1" si="0">YEAR(TODAY())-YEAR(G3)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K51" si="1">COUNTA(C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -1013,15 +4687,19 @@
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>4000</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1046,15 +4724,19 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>3800</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -1079,15 +4761,19 @@
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>1800</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1112,15 +4798,19 @@
       <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>4100</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -1145,15 +4835,19 @@
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>4600</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1178,15 +4872,19 @@
       <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>4600</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1211,15 +4909,19 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>3800</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1244,15 +4946,19 @@
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>1000</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -1277,15 +4983,19 @@
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>1300</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1310,15 +5020,19 @@
       <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>4500</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1343,15 +5057,19 @@
       <c r="H14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="5">
         <v>4300</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1376,15 +5094,19 @@
       <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>3800</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1409,15 +5131,19 @@
       <c r="H16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>4600</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1442,15 +5168,19 @@
       <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="5">
         <v>4600</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1475,15 +5205,19 @@
       <c r="H18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="5">
         <v>2500</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1508,15 +5242,19 @@
       <c r="H19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>4300</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1541,15 +5279,19 @@
       <c r="H20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>3800</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1574,15 +5316,19 @@
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>4500</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1607,15 +5353,19 @@
       <c r="H22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>4700</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1640,15 +5390,19 @@
       <c r="H23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="5">
         <v>6500</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1673,15 +5427,19 @@
       <c r="H24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <v>3210</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1706,15 +5464,19 @@
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="5">
         <v>3680</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -1739,15 +5501,19 @@
       <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="5">
         <v>2568</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1772,15 +5538,19 @@
       <c r="H27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="5">
         <v>4560</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -1805,15 +5575,19 @@
       <c r="H28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>1230</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -1838,15 +5612,19 @@
       <c r="H29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>2130</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1871,15 +5649,19 @@
       <c r="H30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="5">
         <v>4560</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -1904,15 +5686,19 @@
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="5">
         <v>3789</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -1937,15 +5723,19 @@
       <c r="H32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>5789</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -1970,15 +5760,19 @@
       <c r="H33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="5">
         <v>1587</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -2003,15 +5797,19 @@
       <c r="H34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="5">
         <v>5830</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -2036,15 +5834,19 @@
       <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="5">
         <v>5468</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -2069,15 +5871,19 @@
       <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="5">
         <v>4780</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -2102,15 +5908,19 @@
       <c r="H37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="5">
         <v>2050</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -2135,15 +5945,19 @@
       <c r="H38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="5">
         <v>3560</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -2168,15 +5982,19 @@
       <c r="H39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="5">
         <v>3450</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -2201,15 +6019,19 @@
       <c r="H40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="5">
         <v>3120</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -2234,15 +6056,19 @@
       <c r="H41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5">
         <v>4521</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -2267,15 +6093,19 @@
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="5">
         <v>2450</v>
       </c>
       <c r="J42" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -2300,15 +6130,19 @@
       <c r="H43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="5">
         <v>1350</v>
       </c>
       <c r="J43" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -2333,15 +6167,19 @@
       <c r="H44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="5">
         <v>6408</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -2366,15 +6204,19 @@
       <c r="H45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="5">
         <v>2015</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -2399,15 +6241,19 @@
       <c r="H46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="5">
         <v>2019</v>
       </c>
       <c r="J46" s="5" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -2432,15 +6278,19 @@
       <c r="H47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="5">
         <v>2508</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -2465,15 +6315,19 @@
       <c r="H48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="5">
         <v>3250</v>
       </c>
       <c r="J48" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -2498,15 +6352,19 @@
       <c r="H49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="5">
         <v>1559</v>
       </c>
       <c r="J49" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -2531,15 +6389,19 @@
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="5">
         <v>4520</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.35" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -2564,12 +6426,16 @@
       <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="5">
         <v>6520</v>
       </c>
       <c r="J51" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2579,17 +6445,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
